--- a/REGULAR/MARANAN, FAITH.xlsx
+++ b/REGULAR/MARANAN, FAITH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\REGULAR DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A58D3D-3D93-4764-933D-1F5B8EC4943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>PERIOD</t>
   </si>
@@ -175,11 +168,14 @@
   <si>
     <t>TOURISM</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -567,7 +563,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,7 +1050,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1093,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1157,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1217,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1283,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1346,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1444,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1503,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1568,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1611,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1686,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1872,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1938,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +1996,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2062,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2118,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2193,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2236,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2302,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2358,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2456,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2519,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2568,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2589,25 +2585,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2619,13 +2615,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2634,14 +2630,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2945,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2955,7 +2951,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2963,34 +2959,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A422" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E423" sqref="E423"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3007,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3027,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3053,7 +3049,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3061,7 +3057,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3074,7 +3070,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3091,7 +3087,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3135,7 +3131,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>4.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3145,13 +3141,15 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0</v>
+        <v>4.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="39"/>
@@ -3166,72 +3164,90 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>45001</v>
+      </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>0.625</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.625</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>45046</v>
+      </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
+        <v>45077</v>
+      </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>45107</v>
+      </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>45138</v>
+      </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
@@ -3246,8 +3262,10 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
+        <v>45169</v>
+      </c>
       <c r="B16" s="20"/>
       <c r="C16" s="13"/>
       <c r="D16" s="39"/>
@@ -3262,8 +3280,10 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>45199</v>
+      </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
@@ -3278,8 +3298,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>45230</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -3294,8 +3316,10 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>45260</v>
+      </c>
       <c r="B19" s="15"/>
       <c r="C19" s="13"/>
       <c r="D19" s="43"/>
@@ -3310,8 +3334,10 @@
       <c r="J19" s="12"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>45291</v>
+      </c>
       <c r="B20" s="15"/>
       <c r="C20" s="13"/>
       <c r="D20" s="43"/>
@@ -3326,8 +3352,10 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>45322</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -3342,8 +3370,10 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>45351</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -3358,8 +3388,10 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>45382</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3374,8 +3406,10 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>45412</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3390,8 +3424,10 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>45443</v>
+      </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -3406,8 +3442,10 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>45473</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3422,8 +3460,10 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>45504</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3438,8 +3478,10 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>45535</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3454,8 +3496,10 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
+        <v>45565</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -3470,8 +3514,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
+        <v>45596</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3486,8 +3532,10 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>45626</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -3502,8 +3550,10 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
+        <v>45657</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -3518,8 +3568,10 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>45688</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3534,8 +3586,10 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>45716</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3550,8 +3604,10 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
+        <v>45747</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3566,8 +3622,10 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
+        <v>45777</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3582,8 +3640,10 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>45808</v>
+      </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3598,7 +3658,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3614,7 +3674,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3630,7 +3690,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3646,7 +3706,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3662,7 +3722,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3678,7 +3738,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3694,7 +3754,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3710,7 +3770,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3726,7 +3786,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3742,7 +3802,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3758,7 +3818,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3774,7 +3834,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3790,7 +3850,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3806,7 +3866,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3822,7 +3882,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3838,7 +3898,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3854,7 +3914,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3870,7 +3930,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="49"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3886,7 +3946,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="49"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3902,7 +3962,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3918,7 +3978,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3934,7 +3994,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3950,7 +4010,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3966,7 +4026,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3982,7 +4042,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3998,7 +4058,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4014,7 +4074,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4030,7 +4090,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="49"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4046,7 +4106,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4062,7 +4122,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4078,7 +4138,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4094,7 +4154,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4110,7 +4170,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4126,7 +4186,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4142,7 +4202,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4158,7 +4218,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4174,7 +4234,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4190,7 +4250,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4206,7 +4266,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4222,7 +4282,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4238,7 +4298,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="49"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4254,7 +4314,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="49"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4270,7 +4330,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4286,7 +4346,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4302,7 +4362,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4318,7 +4378,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4334,7 +4394,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4350,7 +4410,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4366,7 +4426,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4382,7 +4442,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4398,7 +4458,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4414,7 +4474,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4430,7 +4490,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4446,7 +4506,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4462,7 +4522,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4478,7 +4538,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4494,7 +4554,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4510,7 +4570,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="48"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4526,7 +4586,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4542,7 +4602,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4558,7 +4618,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4574,7 +4634,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4590,7 +4650,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4606,7 +4666,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4622,7 +4682,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4638,7 +4698,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4654,7 +4714,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4670,7 +4730,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4686,7 +4746,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4702,7 +4762,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4718,7 +4778,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4734,7 +4794,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4750,7 +4810,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4766,7 +4826,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4782,7 +4842,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4798,7 +4858,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="49"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4814,7 +4874,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="48"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4830,7 +4890,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4846,7 +4906,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4862,7 +4922,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4878,7 +4938,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4894,7 +4954,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4910,7 +4970,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4926,7 +4986,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4942,7 +5002,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="49"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4958,7 +5018,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4974,7 +5034,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4990,7 +5050,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5006,7 +5066,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5022,7 +5082,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="48"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5038,7 +5098,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5054,7 +5114,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5070,7 +5130,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5086,7 +5146,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5102,7 +5162,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5118,7 +5178,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5134,7 +5194,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="49"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5150,7 +5210,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5166,7 +5226,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5182,7 +5242,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5198,7 +5258,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="49"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5214,7 +5274,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="49"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5230,7 +5290,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5246,7 +5306,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="49"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5262,7 +5322,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="49"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5278,7 +5338,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="49"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5294,7 +5354,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5310,7 +5370,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="49"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5326,7 +5386,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="48"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5342,7 +5402,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5358,7 +5418,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5374,7 +5434,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5390,7 +5450,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5406,7 +5466,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5422,7 +5482,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5438,7 +5498,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5454,7 +5514,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5470,7 +5530,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5486,7 +5546,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5502,7 +5562,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5518,7 +5578,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5534,7 +5594,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="48"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5550,7 +5610,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5566,7 +5626,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5582,7 +5642,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -5598,7 +5658,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -5614,7 +5674,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="49"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -5630,7 +5690,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5646,7 +5706,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5662,7 +5722,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5678,7 +5738,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="49"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5694,7 +5754,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5710,7 +5770,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="49"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5726,7 +5786,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5742,7 +5802,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5758,7 +5818,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="49"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5774,7 +5834,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="49"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5790,7 +5850,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5806,7 +5866,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="49"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5822,7 +5882,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5838,7 +5898,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="49"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="48"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5854,7 +5914,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5870,7 +5930,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="49"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5886,7 +5946,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5902,7 +5962,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5918,7 +5978,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="49"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5934,7 +5994,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="49"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5950,7 +6010,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5966,7 +6026,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5982,7 +6042,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5998,7 +6058,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="49"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6014,7 +6074,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6030,7 +6090,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="49"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6046,7 +6106,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="15"/>
       <c r="C191" s="13"/>
@@ -6062,7 +6122,7 @@
       <c r="J191" s="12"/>
       <c r="K191" s="50"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="15"/>
       <c r="C192" s="13"/>
@@ -6078,7 +6138,7 @@
       <c r="J192" s="12"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6094,7 +6154,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="49"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6110,7 +6170,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -6126,7 +6186,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="49"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -6142,7 +6202,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6158,7 +6218,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -6174,7 +6234,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -6190,7 +6250,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="49"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -6206,7 +6266,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6222,7 +6282,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -6238,7 +6298,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -6254,7 +6314,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -6270,7 +6330,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -6286,7 +6346,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -6302,7 +6362,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6318,7 +6378,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6334,7 +6394,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6350,7 +6410,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6366,7 +6426,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6382,7 +6442,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -6398,7 +6458,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="49"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -6414,7 +6474,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6430,7 +6490,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="49"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6446,7 +6506,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -6462,7 +6522,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -6478,7 +6538,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="48"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6494,7 +6554,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6510,7 +6570,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="49"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6526,7 +6586,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6542,7 +6602,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6558,7 +6618,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6574,7 +6634,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6590,7 +6650,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6606,7 +6666,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6622,7 +6682,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6638,7 +6698,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6654,7 +6714,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6670,7 +6730,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6686,7 +6746,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6702,7 +6762,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6718,7 +6778,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6734,7 +6794,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6750,7 +6810,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6766,7 +6826,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6782,7 +6842,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="49"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6798,7 +6858,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6814,7 +6874,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -6830,7 +6890,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -6846,7 +6906,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -6862,7 +6922,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -6878,7 +6938,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="49"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -6894,7 +6954,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -6910,7 +6970,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -6926,7 +6986,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -6942,7 +7002,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -6958,7 +7018,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="49"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -6974,7 +7034,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="49"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -6990,7 +7050,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="49"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7006,7 +7066,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7022,7 +7082,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7038,7 +7098,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="49"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7054,7 +7114,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7070,7 +7130,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7086,7 +7146,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7102,7 +7162,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7118,7 +7178,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -7134,7 +7194,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -7150,7 +7210,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -7166,7 +7226,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="49"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -7182,7 +7242,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="49"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -7198,7 +7258,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="48"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -7214,7 +7274,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -7230,7 +7290,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="49"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -7246,7 +7306,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -7262,7 +7322,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="49"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -7278,7 +7338,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -7294,7 +7354,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -7310,7 +7370,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="49"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -7326,7 +7386,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="49"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -7342,7 +7402,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -7358,7 +7418,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="49"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -7374,7 +7434,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="49"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -7390,7 +7450,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -7406,7 +7466,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="49"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -7422,7 +7482,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -7438,7 +7498,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -7454,7 +7514,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="49"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -7470,7 +7530,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -7486,7 +7546,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -7502,7 +7562,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -7518,7 +7578,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -7534,7 +7594,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="49"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -7550,7 +7610,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -7566,7 +7626,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -7582,7 +7642,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="49"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -7598,7 +7658,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="49"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -7614,7 +7674,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -7630,7 +7690,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -7646,7 +7706,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -7662,7 +7722,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="49"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -7678,7 +7738,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -7694,7 +7754,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -7710,7 +7770,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -7726,7 +7786,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="49"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -7742,7 +7802,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -7758,7 +7818,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="48"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -7774,7 +7834,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -7790,7 +7850,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -7806,7 +7866,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -7822,7 +7882,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -7838,7 +7898,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -7854,7 +7914,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="49"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -7870,7 +7930,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -7886,7 +7946,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -7902,7 +7962,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -7918,7 +7978,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="49"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -7934,7 +7994,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -7950,7 +8010,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="49"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -7966,7 +8026,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -7982,7 +8042,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="49"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -7998,7 +8058,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -8014,7 +8074,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -8030,7 +8090,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -8046,7 +8106,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="49"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -8062,7 +8122,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="49"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -8078,7 +8138,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -8094,7 +8154,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="49"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -8110,7 +8170,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -8126,7 +8186,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -8142,7 +8202,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -8158,7 +8218,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="49"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="48"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -8174,7 +8234,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -8190,7 +8250,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="49"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -8206,7 +8266,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -8222,7 +8282,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="49"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -8238,7 +8298,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -8254,7 +8314,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -8270,7 +8330,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="49"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -8286,7 +8346,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -8302,7 +8362,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -8318,7 +8378,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -8334,7 +8394,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -8350,7 +8410,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -8366,7 +8426,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="49"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -8382,7 +8442,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="49"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -8398,7 +8458,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -8414,7 +8474,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -8430,7 +8490,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -8446,7 +8506,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -8462,7 +8522,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="49"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -8478,7 +8538,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -8494,7 +8554,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -8510,7 +8570,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -8526,7 +8586,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -8542,7 +8602,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -8558,7 +8618,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="49"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -8574,7 +8634,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -8590,7 +8650,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -8606,7 +8666,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -8622,7 +8682,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -8638,7 +8698,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -8654,7 +8714,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="48"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -8670,7 +8730,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -8686,7 +8746,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="49"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -8702,7 +8762,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -8718,7 +8778,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="49"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -8734,7 +8794,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="49"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -8750,7 +8810,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -8766,7 +8826,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="49"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -8782,7 +8842,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -8798,7 +8858,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -8814,7 +8874,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -8830,7 +8890,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -8846,7 +8906,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -8862,7 +8922,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -8878,7 +8938,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -8894,7 +8954,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -8910,7 +8970,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -8926,7 +8986,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -8942,7 +9002,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -8958,7 +9018,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="48"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -8974,7 +9034,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -8990,7 +9050,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -9006,7 +9066,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -9022,7 +9082,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -9038,7 +9098,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -9054,7 +9114,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -9070,7 +9130,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -9086,7 +9146,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -9102,7 +9162,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9118,7 +9178,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9134,7 +9194,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9150,7 +9210,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9166,7 +9226,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="48"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9182,7 +9242,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9198,7 +9258,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9214,7 +9274,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9230,7 +9290,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9246,7 +9306,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -9262,7 +9322,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -9278,7 +9338,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -9294,7 +9354,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -9310,7 +9370,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -9326,7 +9386,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -9342,7 +9402,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -9358,7 +9418,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -9374,7 +9434,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -9390,7 +9450,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -9406,7 +9466,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -9422,7 +9482,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -9438,7 +9498,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -9454,7 +9514,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -9470,7 +9530,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -9486,7 +9546,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -9502,7 +9562,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -9518,7 +9578,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -9534,7 +9594,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -9550,7 +9610,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -9566,7 +9626,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -9582,7 +9642,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -9598,7 +9658,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -9614,7 +9674,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -9630,7 +9690,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -9646,7 +9706,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -9662,7 +9722,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -9678,7 +9738,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -9694,7 +9754,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -9710,7 +9770,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -9726,7 +9786,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -9742,7 +9802,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -9758,7 +9818,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -9774,7 +9834,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -9790,7 +9850,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="48"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -9806,7 +9866,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -9822,7 +9882,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -9838,7 +9898,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -9854,7 +9914,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -9870,7 +9930,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -9886,7 +9946,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -9902,7 +9962,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -9918,7 +9978,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -9934,7 +9994,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -9950,7 +10010,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -9966,7 +10026,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -9982,7 +10042,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -9998,7 +10058,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="48"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10014,7 +10074,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10030,7 +10090,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10046,7 +10106,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10062,7 +10122,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -10078,7 +10138,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -10094,7 +10154,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -10110,7 +10170,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -10126,7 +10186,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -10142,7 +10202,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -10158,7 +10218,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -10174,7 +10234,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -10190,7 +10250,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -10206,7 +10266,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -10222,7 +10282,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -10238,7 +10298,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -10254,7 +10314,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -10270,7 +10330,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -10286,7 +10346,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -10302,7 +10362,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -10318,7 +10378,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -10334,7 +10394,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -10350,7 +10410,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -10366,7 +10426,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -10382,7 +10442,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -10398,7 +10458,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -10414,7 +10474,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -10430,7 +10490,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -10446,7 +10506,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -10462,7 +10522,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -10478,7 +10538,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -10494,7 +10554,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -10510,7 +10570,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -10526,7 +10586,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -10542,7 +10602,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -10558,7 +10618,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -10574,7 +10634,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -10590,7 +10650,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -10606,7 +10666,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -10622,7 +10682,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -10638,7 +10698,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -10654,7 +10714,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -10670,7 +10730,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -10686,7 +10746,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -10702,7 +10762,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -10718,7 +10778,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -10734,7 +10794,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -10750,7 +10810,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -10766,7 +10826,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -10782,7 +10842,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -10798,7 +10858,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -10814,7 +10874,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -10830,7 +10890,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -10846,7 +10906,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -10862,7 +10922,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -10878,7 +10938,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -10894,7 +10954,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -10910,7 +10970,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -10926,7 +10986,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -10942,7 +11002,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -10958,7 +11018,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -10974,7 +11034,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -10990,7 +11050,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -11006,7 +11066,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -11022,7 +11082,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -11038,7 +11098,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -11054,7 +11114,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -11070,7 +11130,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -11086,7 +11146,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="41"/>
       <c r="B506" s="15"/>
       <c r="C506" s="42"/>
@@ -11117,10 +11177,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11143,29 +11203,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -11178,7 +11238,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11207,7 +11267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11217,27 +11277,29 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>16</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>15</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11258,7 +11320,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11285,7 +11347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11311,7 +11373,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11337,7 +11399,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11363,7 +11425,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11389,7 +11451,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11415,7 +11477,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11441,7 +11503,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11467,7 +11529,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11487,7 +11549,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11507,7 +11569,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11527,7 +11589,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11548,7 +11610,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11569,7 +11631,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11590,7 +11652,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11611,7 +11673,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11632,7 +11694,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11653,7 +11715,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11674,7 +11736,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11695,7 +11757,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11716,7 +11778,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11737,7 +11799,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11758,7 +11820,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11779,7 +11841,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11800,7 +11862,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11821,7 +11883,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11842,7 +11904,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11863,7 +11925,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11884,7 +11946,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11905,7 +11967,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11926,7 +11988,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11947,7 +12009,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11956,7 +12018,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11965,7 +12027,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11974,7 +12036,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11983,7 +12045,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11992,7 +12054,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12001,7 +12063,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12010,7 +12072,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12019,7 +12081,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12028,7 +12090,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12037,7 +12099,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12046,7 +12108,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12055,7 +12117,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12064,7 +12126,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12073,7 +12135,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12082,7 +12144,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12091,7 +12153,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12100,7 +12162,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12109,7 +12171,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12118,7 +12180,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12127,7 +12189,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12136,7 +12198,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12145,7 +12207,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12154,7 +12216,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12163,7 +12225,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12172,7 +12234,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12181,7 +12243,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12190,7 +12252,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12199,7 +12261,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12208,7 +12270,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
